--- a/data/trans_orig/P32E$bar_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE41CAB-D2FA-4E65-A10E-77DF98F4DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829E1EF1-8D80-4A76-9DE3-AD589E68186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C5304F0-15DD-4D11-BEF5-C2C2D2A031D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{052DAF22-255C-47BC-BBC9-9AE2C844ACF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
-  <si>
-    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="181">
+  <si>
+    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,73 +65,73 @@
     <t>Bares, pub, restaurantes</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>Casas de amistades, familiares</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -143,40 +143,40 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>En la calle</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Conciertos, eventos</t>
@@ -191,388 +191,391 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467C38F-35F8-434B-B458-839F9326665E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F7545B-B939-4A3C-8A5F-9F8925816D59}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,13 +1362,13 @@
         <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1374,66 +1377,66 @@
         <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1442,31 +1445,31 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1475,31 +1478,31 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1508,31 +1511,31 @@
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1541,31 +1544,31 @@
         <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1576,31 +1579,31 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1609,16 +1612,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>149</v>
@@ -1633,7 +1636,7 @@
         <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,13 +1645,13 @@
         <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>156</v>
@@ -1726,18 +1729,18 @@
         <v>176</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32E$bar_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
+          <t>Población según los lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
